--- a/biology/Médecine/Fracture_de_l'extrémité_supérieure_du_fémur/Fracture_de_l'extrémité_supérieure_du_fémur.xlsx
+++ b/biology/Médecine/Fracture_de_l'extrémité_supérieure_du_fémur/Fracture_de_l'extrémité_supérieure_du_fémur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fracture_de_l%27extr%C3%A9mit%C3%A9_sup%C3%A9rieure_du_f%C3%A9mur</t>
+          <t>Fracture_de_l'extrémité_supérieure_du_fémur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une fracture de l'extrémité supérieure du fémur (ou fracture de l'extrémité proximale du fémur), appelée couramment « fracture de la hanche » ou fracture du col du fémur, désigne une fracture du fémur localisée au niveau de son épiphyse supérieure.
-Elles font suite à une chute[1], elles sont douloureuses et responsables d’impotence fonctionnelle. Les contraintes mécaniques tendent à séparer les fragments osseux. Elles sont d’évolution peu favorable du fait de la lésion associée de l’artère circonflexe postérieure.
+Elles font suite à une chute, elles sont douloureuses et responsables d’impotence fonctionnelle. Les contraintes mécaniques tendent à séparer les fragments osseux. Elles sont d’évolution peu favorable du fait de la lésion associée de l’artère circonflexe postérieure.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fracture_de_l%27extr%C3%A9mit%C3%A9_sup%C3%A9rieure_du_f%C3%A9mur</t>
+          <t>Fracture_de_l'extrémité_supérieure_du_fémur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,15 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fractures de l'extrémité proximale du fémur sont fréquentes chez les personnes âgées. Elles sont liées à l'ostéoporose, ce qui explique qu'elles frappent plus précocement et plus fréquemment les femmes que les hommes. Elles surviennent souvent après quatre-vingts ans à l'occasion d'un traumatisme minime, telle une chute de sa hauteur. Parfois aussi, elles sont spontanées et entraînent la chute.
 Leur gravité vient de la fragilité des patients atteints.
-Globalement un tiers des patients décède dans l'année suivant l'accident, un tiers devient plus ou moins dépendant et seulement un tiers récupère une fonction normale[3].
-Aux États-Unis, l'incidence annuelle chez les femmes de plus de 65 ans est légèrement inférieure à 1 %. Elle est de moitié chez les hommes de la même tranche d'âge. Elle a diminué de près de 20 % depuis 1995[4].
-Le taux de mortalité à 1 an après une fracture au niveau de la hanche est de 26,7% aux États-Unis[5].
+Globalement un tiers des patients décède dans l'année suivant l'accident, un tiers devient plus ou moins dépendant et seulement un tiers récupère une fonction normale.
+Aux États-Unis, l'incidence annuelle chez les femmes de plus de 65 ans est légèrement inférieure à 1 %. Elle est de moitié chez les hommes de la même tranche d'âge. Elle a diminué de près de 20 % depuis 1995.
+Le taux de mortalité à 1 an après une fracture au niveau de la hanche est de 26,7% aux États-Unis.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fracture_de_l%27extr%C3%A9mit%C3%A9_sup%C3%A9rieure_du_f%C3%A9mur</t>
+          <t>Fracture_de_l'extrémité_supérieure_du_fémur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,18 +561,20 @@
           <t>Anatomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'extrémité supérieure du fémur comprend le grand trochanter, le petit trochanter, le col du fémur et la tête du fémur.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'extrémité supérieure du fémur comprend le grand trochanter, le petit trochanter, le col du fémur et la tête du fémur.
 Deux tiers des fractures passent dans le massif des trochanters, un tiers seulement intéresse vraiment le col du fémur.
 			Fracture du col
 			Fracture pertrochantérienne
 			Fractures par coup de feu en dessous des deux trochanters
-On classifie les fractures du col du fémur selon la classification de Garden[6]:
+On classifie les fractures du col du fémur selon la classification de Garden:
 Garden I : fracture engrenée en valgus
 Garden II : fracture sans déplacement
 Garden III : fracture en varus, avec déplacement
-Garden IV : fracture en varus, avec déplacement important et désolidarisation [7]</t>
+Garden IV : fracture en varus, avec déplacement important et désolidarisation </t>
         </is>
       </c>
     </row>
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fracture_de_l%27extr%C3%A9mit%C3%A9_sup%C3%A9rieure_du_f%C3%A9mur</t>
+          <t>Fracture_de_l'extrémité_supérieure_du_fémur</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le diagnostic est posé après une chute avec le plus souvent impossibilité de se relever. La jambe fracturée est raccourcie, le pied est tourné vers l'extérieur.
 Parfois, la fracture est engrenée et le patient peut continuer à marcher pendant plusieurs jours.
@@ -606,7 +624,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fracture_de_l%27extr%C3%A9mit%C3%A9_sup%C3%A9rieure_du_f%C3%A9mur</t>
+          <t>Fracture_de_l'extrémité_supérieure_du_fémur</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -624,7 +642,9 @@
           <t>Prise en charge</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le traitement n'est pas toujours chirurgical.
 Les fractures dites stables (Garden I) engrenées peuvent consolider spontanément en suspendant l'appui pendant 6 semaines.
